--- a/Coursera IBM EDA/Montgomery_Fleet_Equipment_Inventory_FA_PART_2_END.xlsx
+++ b/Coursera IBM EDA/Montgomery_Fleet_Equipment_Inventory_FA_PART_2_END.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\excel_eda\Coursera IBM EDA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46825076-A660-439F-9F39-DED795B26486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIVOT TABLE (3)" sheetId="5" r:id="rId1"/>
@@ -15,10 +21,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Montgomery_Fleet_Equipment_Inve!$A$1:$C$50</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -136,13 +154,13 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Count of Equipment Count</t>
+    <t>Sum of Equipment Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,7 +717,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="THOMAS" refreshedDate="44305.853213194445" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="50">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="THOMAS" refreshedDate="44305.853213194445" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="50" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C1048576" sheet="Montgomery_Fleet_Equipment_Inve"/>
   </cacheSource>
@@ -1037,7 +1055,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -1185,19 +1203,22 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Equipment Count" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Equipment Count" fld="2" baseField="1" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -1317,37 +1338,37 @@
       <x v="13"/>
     </i>
     <i>
+      <x v="5"/>
+    </i>
+    <i>
       <x v="8"/>
     </i>
     <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i>
       <x v="6"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -1357,19 +1378,22 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Equipment Count" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Equipment Count" fld="2" baseField="0" baseItem="11"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -1442,37 +1466,37 @@
       <x v="11"/>
     </i>
     <i>
+      <x v="5"/>
+    </i>
+    <i>
       <x v="8"/>
     </i>
     <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i>
       <x v="6"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -1482,24 +1506,27 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Equipment Count" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Equipment Count" fld="2" baseField="0" baseItem="11"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C50" totalsRowShown="0">
-  <autoFilter ref="A1:C50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C50" totalsRowShown="0">
+  <autoFilter ref="A1:C50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Department"/>
-    <tableColumn id="2" name="Equipment Class"/>
-    <tableColumn id="3" name="Equipment Count"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Department"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Equipment Class"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Equipment Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1548,7 +1575,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1600,7 +1627,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1794,24 +1821,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="2" customWidth="1"/>
     <col min="11" max="25" width="3" customWidth="1"/>
     <col min="26" max="28" width="4" customWidth="1"/>
@@ -1831,7 +1858,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="5">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1839,7 +1866,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1847,7 +1874,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1863,7 +1890,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="5">
-        <v>2</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1871,7 +1898,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="5">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1879,7 +1906,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="5">
-        <v>2</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1887,7 +1914,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="5">
-        <v>7</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1895,7 +1922,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1911,7 +1938,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="5">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1919,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1927,7 +1954,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1935,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="5">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1943,7 +1970,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="5">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1951,7 +1978,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="5">
-        <v>1</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1959,7 +1986,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="5">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1967,7 +1994,7 @@
         <v>36</v>
       </c>
       <c r="B21" s="5">
-        <v>49</v>
+        <v>1582</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:B25"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -1986,7 +2013,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="2" customWidth="1"/>
     <col min="11" max="25" width="3" customWidth="1"/>
     <col min="26" max="28" width="4" customWidth="1"/>
@@ -2006,7 +2033,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="5">
-        <v>9</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2014,7 +2041,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2022,7 +2049,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="5">
-        <v>1</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2030,7 +2057,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="5">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2038,7 +2065,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="5">
-        <v>1</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2046,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="5">
-        <v>1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2054,7 +2081,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2062,7 +2089,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2070,7 +2097,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="5">
-        <v>1</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2078,47 +2105,47 @@
         <v>10</v>
       </c>
       <c r="B13" s="5">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B17" s="5">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2126,7 +2153,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2134,23 +2161,23 @@
         <v>9</v>
       </c>
       <c r="B20" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5">
         <v>5</v>
-      </c>
-      <c r="B21" s="5">
-        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2163,7 +2190,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B24" s="5">
         <v>1</v>
@@ -2174,7 +2201,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="5">
-        <v>49</v>
+        <v>1582</v>
       </c>
     </row>
   </sheetData>
@@ -2183,7 +2210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -2193,7 +2220,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="2" customWidth="1"/>
     <col min="11" max="25" width="3" customWidth="1"/>
     <col min="26" max="28" width="4" customWidth="1"/>
@@ -2213,47 +2240,47 @@
         <v>26</v>
       </c>
       <c r="B4" s="5">
-        <v>9</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2261,7 +2288,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2269,23 +2296,23 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5">
         <v>5</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2298,7 +2325,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
@@ -2309,7 +2336,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="5">
-        <v>49</v>
+        <v>1582</v>
       </c>
     </row>
   </sheetData>
@@ -2318,11 +2345,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
